--- a/examples/Wealth-Distribution-ParamFromExcel/params.xlsx
+++ b/examples/Wealth-Distribution-ParamFromExcel/params.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12957\Documents\Developing\Python\melodie\tests\resources\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12957\Documents\Developing\Python\melodie\examples\Wealth-Distribution-ParamFromExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B390D2-DA69-4606-ADCC-345C63DBE496}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED97083D-1F35-415A-8F00-24A50C2D8850}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15705" windowHeight="12225" activeTab="3" xr2:uid="{716BFD88-6474-41BF-9DB0-21FEC84685E2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15705" windowHeight="12225" xr2:uid="{716BFD88-6474-41BF-9DB0-21FEC84685E2}"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,10 @@
   </si>
   <si>
     <t>account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number_of_run</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,24 +462,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAC137C-E36E-4AE0-AD87-46B817F3BF1B}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,26 +488,29 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -510,26 +518,29 @@
         <v>100</v>
       </c>
       <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
         <v>200</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>100</v>
       </c>
-      <c r="F2" s="2">
-        <v>0.5</v>
-      </c>
       <c r="G2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="2">
         <v>100</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>0.6</v>
       </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -537,26 +548,29 @@
         <v>100</v>
       </c>
       <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
         <v>200</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>100</v>
       </c>
-      <c r="F3" s="2">
-        <v>0.5</v>
-      </c>
       <c r="G3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="2">
         <v>100</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>0.7</v>
       </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -564,26 +578,29 @@
         <v>100</v>
       </c>
       <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
         <v>200</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>100</v>
       </c>
-      <c r="F4" s="3">
-        <v>0.5</v>
-      </c>
       <c r="G4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="3">
         <v>100</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>0.8</v>
       </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -593,8 +610,9 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -604,8 +622,9 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -615,8 +634,9 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -626,10 +646,12 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2899,7 +2921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AFA9A3E-C4B1-4F8D-873B-B8BE9B181913}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>

--- a/examples/Wealth-Distribution-ParamFromExcel/params.xlsx
+++ b/examples/Wealth-Distribution-ParamFromExcel/params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12957\Documents\Developing\Python\melodie\examples\Wealth-Distribution-ParamFromExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED97083D-1F35-415A-8F00-24A50C2D8850}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7F116E-BE95-45D2-8269-343D2495707B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15705" windowHeight="12225" xr2:uid="{716BFD88-6474-41BF-9DB0-21FEC84685E2}"/>
   </bookViews>
@@ -465,7 +465,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -575,10 +575,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="C4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="3">
         <v>200</v>
@@ -657,10 +657,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B92CA17B-1B04-4DD3-A31A-03444A58C19B}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1779,6 +1779,2406 @@
         <v>96</v>
       </c>
     </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>0.5</v>
+      </c>
+      <c r="C102">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>0.5</v>
+      </c>
+      <c r="C103">
+        <f t="shared" ref="C103:C166" ca="1" si="0">RANDBETWEEN(0,100)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>0.5</v>
+      </c>
+      <c r="C104">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>0.5</v>
+      </c>
+      <c r="C105">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>0.5</v>
+      </c>
+      <c r="C106">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>0.5</v>
+      </c>
+      <c r="C107">
+        <f t="shared" ca="1" si="0"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>0.5</v>
+      </c>
+      <c r="C108">
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>0.5</v>
+      </c>
+      <c r="C109">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>0.5</v>
+      </c>
+      <c r="C110">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>0.5</v>
+      </c>
+      <c r="C111">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>0.5</v>
+      </c>
+      <c r="C112">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>0.5</v>
+      </c>
+      <c r="C113">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>0.5</v>
+      </c>
+      <c r="C114">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>0.5</v>
+      </c>
+      <c r="C115">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>0.5</v>
+      </c>
+      <c r="C116">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>0.5</v>
+      </c>
+      <c r="C117">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>0.5</v>
+      </c>
+      <c r="C118">
+        <f t="shared" ca="1" si="0"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>0.5</v>
+      </c>
+      <c r="C119">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>0.5</v>
+      </c>
+      <c r="C120">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>0.5</v>
+      </c>
+      <c r="C121">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>0.5</v>
+      </c>
+      <c r="C122">
+        <f t="shared" ca="1" si="0"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>0.5</v>
+      </c>
+      <c r="C123">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>0.5</v>
+      </c>
+      <c r="C124">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>0.5</v>
+      </c>
+      <c r="C125">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>0.5</v>
+      </c>
+      <c r="C126">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>0.5</v>
+      </c>
+      <c r="C127">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>0.5</v>
+      </c>
+      <c r="C128">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>0.5</v>
+      </c>
+      <c r="C129">
+        <f t="shared" ca="1" si="0"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>0.5</v>
+      </c>
+      <c r="C130">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>0.5</v>
+      </c>
+      <c r="C131">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>0.5</v>
+      </c>
+      <c r="C132">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>0.5</v>
+      </c>
+      <c r="C133">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>0.5</v>
+      </c>
+      <c r="C134">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>0.5</v>
+      </c>
+      <c r="C135">
+        <f t="shared" ca="1" si="0"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>0.5</v>
+      </c>
+      <c r="C136">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>0.5</v>
+      </c>
+      <c r="C137">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>0.5</v>
+      </c>
+      <c r="C138">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>0.5</v>
+      </c>
+      <c r="C139">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>0.5</v>
+      </c>
+      <c r="C140">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>0.5</v>
+      </c>
+      <c r="C141">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>0.5</v>
+      </c>
+      <c r="C142">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>0.5</v>
+      </c>
+      <c r="C143">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>0.5</v>
+      </c>
+      <c r="C144">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>0.5</v>
+      </c>
+      <c r="C145">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>0.5</v>
+      </c>
+      <c r="C146">
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>0.5</v>
+      </c>
+      <c r="C147">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>0.5</v>
+      </c>
+      <c r="C148">
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>0.5</v>
+      </c>
+      <c r="C149">
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>0.5</v>
+      </c>
+      <c r="C150">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>0.5</v>
+      </c>
+      <c r="C151">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>0.5</v>
+      </c>
+      <c r="C152">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>0.5</v>
+      </c>
+      <c r="C153">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>0.5</v>
+      </c>
+      <c r="C154">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>0.5</v>
+      </c>
+      <c r="C155">
+        <f t="shared" ca="1" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>0.5</v>
+      </c>
+      <c r="C156">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>0.5</v>
+      </c>
+      <c r="C157">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>0.5</v>
+      </c>
+      <c r="C158">
+        <f t="shared" ca="1" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>0.5</v>
+      </c>
+      <c r="C159">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>0.5</v>
+      </c>
+      <c r="C160">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>0.5</v>
+      </c>
+      <c r="C161">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>0.5</v>
+      </c>
+      <c r="C162">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>0.5</v>
+      </c>
+      <c r="C163">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>0.5</v>
+      </c>
+      <c r="C164">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>0.5</v>
+      </c>
+      <c r="C165">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>0.5</v>
+      </c>
+      <c r="C166">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>0.5</v>
+      </c>
+      <c r="C167">
+        <f t="shared" ref="C167:C230" ca="1" si="1">RANDBETWEEN(0,100)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>0.5</v>
+      </c>
+      <c r="C168">
+        <f t="shared" ca="1" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>0.5</v>
+      </c>
+      <c r="C169">
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>0.5</v>
+      </c>
+      <c r="C170">
+        <f t="shared" ca="1" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>0.5</v>
+      </c>
+      <c r="C171">
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>0.5</v>
+      </c>
+      <c r="C172">
+        <f t="shared" ca="1" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>0.5</v>
+      </c>
+      <c r="C173">
+        <f t="shared" ca="1" si="1"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>0.5</v>
+      </c>
+      <c r="C174">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>0.5</v>
+      </c>
+      <c r="C175">
+        <f t="shared" ca="1" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>0.5</v>
+      </c>
+      <c r="C176">
+        <f t="shared" ca="1" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>0.5</v>
+      </c>
+      <c r="C177">
+        <f t="shared" ca="1" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>0.5</v>
+      </c>
+      <c r="C178">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>0.5</v>
+      </c>
+      <c r="C179">
+        <f t="shared" ca="1" si="1"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>0.5</v>
+      </c>
+      <c r="C180">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>0.5</v>
+      </c>
+      <c r="C181">
+        <f t="shared" ca="1" si="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>0.5</v>
+      </c>
+      <c r="C182">
+        <f t="shared" ca="1" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>0.5</v>
+      </c>
+      <c r="C183">
+        <f t="shared" ca="1" si="1"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>0.5</v>
+      </c>
+      <c r="C184">
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>0.5</v>
+      </c>
+      <c r="C185">
+        <f t="shared" ca="1" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>0.5</v>
+      </c>
+      <c r="C186">
+        <f t="shared" ca="1" si="1"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>0.5</v>
+      </c>
+      <c r="C187">
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>0.5</v>
+      </c>
+      <c r="C188">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>0.5</v>
+      </c>
+      <c r="C189">
+        <f t="shared" ca="1" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>0.5</v>
+      </c>
+      <c r="C190">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>0.5</v>
+      </c>
+      <c r="C191">
+        <f t="shared" ca="1" si="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>0.5</v>
+      </c>
+      <c r="C192">
+        <f t="shared" ca="1" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>0.5</v>
+      </c>
+      <c r="C193">
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>0.5</v>
+      </c>
+      <c r="C194">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>0.5</v>
+      </c>
+      <c r="C195">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>0.5</v>
+      </c>
+      <c r="C196">
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>0.5</v>
+      </c>
+      <c r="C197">
+        <f t="shared" ca="1" si="1"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>0.5</v>
+      </c>
+      <c r="C198">
+        <f t="shared" ca="1" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>0.5</v>
+      </c>
+      <c r="C199">
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>0.5</v>
+      </c>
+      <c r="C200">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>0.5</v>
+      </c>
+      <c r="C201">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>0.5</v>
+      </c>
+      <c r="C202">
+        <f t="shared" ca="1" si="1"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>0.5</v>
+      </c>
+      <c r="C203">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>0.5</v>
+      </c>
+      <c r="C204">
+        <f t="shared" ca="1" si="1"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>0.5</v>
+      </c>
+      <c r="C205">
+        <f t="shared" ca="1" si="1"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>0.5</v>
+      </c>
+      <c r="C206">
+        <f t="shared" ca="1" si="1"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>0.5</v>
+      </c>
+      <c r="C207">
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>0.5</v>
+      </c>
+      <c r="C208">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>0.5</v>
+      </c>
+      <c r="C209">
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>0.5</v>
+      </c>
+      <c r="C210">
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>0.5</v>
+      </c>
+      <c r="C211">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>0.5</v>
+      </c>
+      <c r="C212">
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>0.5</v>
+      </c>
+      <c r="C213">
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>0.5</v>
+      </c>
+      <c r="C214">
+        <f t="shared" ca="1" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>0.5</v>
+      </c>
+      <c r="C215">
+        <f t="shared" ca="1" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>0.5</v>
+      </c>
+      <c r="C216">
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>0.5</v>
+      </c>
+      <c r="C217">
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>0.5</v>
+      </c>
+      <c r="C218">
+        <f t="shared" ca="1" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>0.5</v>
+      </c>
+      <c r="C219">
+        <f t="shared" ca="1" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>0.5</v>
+      </c>
+      <c r="C220">
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>0.5</v>
+      </c>
+      <c r="C221">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>0.5</v>
+      </c>
+      <c r="C222">
+        <f t="shared" ca="1" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>0.5</v>
+      </c>
+      <c r="C223">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>0.5</v>
+      </c>
+      <c r="C224">
+        <f t="shared" ca="1" si="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>0.5</v>
+      </c>
+      <c r="C225">
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>0.5</v>
+      </c>
+      <c r="C226">
+        <f t="shared" ca="1" si="1"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>0.5</v>
+      </c>
+      <c r="C227">
+        <f t="shared" ca="1" si="1"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>0.5</v>
+      </c>
+      <c r="C228">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>0.5</v>
+      </c>
+      <c r="C229">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>0.5</v>
+      </c>
+      <c r="C230">
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>0.5</v>
+      </c>
+      <c r="C231">
+        <f t="shared" ref="C231:C294" ca="1" si="2">RANDBETWEEN(0,100)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>0.5</v>
+      </c>
+      <c r="C232">
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>0.5</v>
+      </c>
+      <c r="C233">
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>0.5</v>
+      </c>
+      <c r="C234">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>0.5</v>
+      </c>
+      <c r="C235">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>0.5</v>
+      </c>
+      <c r="C236">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>0.5</v>
+      </c>
+      <c r="C237">
+        <f t="shared" ca="1" si="2"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>0.5</v>
+      </c>
+      <c r="C238">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>0.5</v>
+      </c>
+      <c r="C239">
+        <f t="shared" ca="1" si="2"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>0.5</v>
+      </c>
+      <c r="C240">
+        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>0.5</v>
+      </c>
+      <c r="C241">
+        <f t="shared" ca="1" si="2"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>0.5</v>
+      </c>
+      <c r="C242">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>0.5</v>
+      </c>
+      <c r="C243">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>0.5</v>
+      </c>
+      <c r="C244">
+        <f t="shared" ca="1" si="2"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>0.5</v>
+      </c>
+      <c r="C245">
+        <f t="shared" ca="1" si="2"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>0.5</v>
+      </c>
+      <c r="C246">
+        <f t="shared" ca="1" si="2"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>0.5</v>
+      </c>
+      <c r="C247">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>0.5</v>
+      </c>
+      <c r="C248">
+        <f t="shared" ca="1" si="2"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>0.5</v>
+      </c>
+      <c r="C249">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>0.5</v>
+      </c>
+      <c r="C250">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>0.5</v>
+      </c>
+      <c r="C251">
+        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>0.5</v>
+      </c>
+      <c r="C252">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>0.5</v>
+      </c>
+      <c r="C253">
+        <f t="shared" ca="1" si="2"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>0.5</v>
+      </c>
+      <c r="C254">
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>0.5</v>
+      </c>
+      <c r="C255">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>0.5</v>
+      </c>
+      <c r="C256">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>0.5</v>
+      </c>
+      <c r="C257">
+        <f t="shared" ca="1" si="2"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>0.5</v>
+      </c>
+      <c r="C258">
+        <f t="shared" ca="1" si="2"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>0.5</v>
+      </c>
+      <c r="C259">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>0.5</v>
+      </c>
+      <c r="C260">
+        <f t="shared" ca="1" si="2"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>0.5</v>
+      </c>
+      <c r="C261">
+        <f t="shared" ca="1" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>0.5</v>
+      </c>
+      <c r="C262">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>0.5</v>
+      </c>
+      <c r="C263">
+        <f t="shared" ca="1" si="2"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>0.5</v>
+      </c>
+      <c r="C264">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>0.5</v>
+      </c>
+      <c r="C265">
+        <f t="shared" ca="1" si="2"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>0.5</v>
+      </c>
+      <c r="C266">
+        <f t="shared" ca="1" si="2"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>0.5</v>
+      </c>
+      <c r="C267">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>0.5</v>
+      </c>
+      <c r="C268">
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>0.5</v>
+      </c>
+      <c r="C269">
+        <f t="shared" ca="1" si="2"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>0.5</v>
+      </c>
+      <c r="C270">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>0.5</v>
+      </c>
+      <c r="C271">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>0.5</v>
+      </c>
+      <c r="C272">
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>0.5</v>
+      </c>
+      <c r="C273">
+        <f t="shared" ca="1" si="2"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>0.5</v>
+      </c>
+      <c r="C274">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>0.5</v>
+      </c>
+      <c r="C275">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>0.5</v>
+      </c>
+      <c r="C276">
+        <f t="shared" ca="1" si="2"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>0.5</v>
+      </c>
+      <c r="C277">
+        <f t="shared" ca="1" si="2"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>0.5</v>
+      </c>
+      <c r="C278">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>0.5</v>
+      </c>
+      <c r="C279">
+        <f t="shared" ca="1" si="2"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>0.5</v>
+      </c>
+      <c r="C280">
+        <f t="shared" ca="1" si="2"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>0.5</v>
+      </c>
+      <c r="C281">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>0.5</v>
+      </c>
+      <c r="C282">
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>0.5</v>
+      </c>
+      <c r="C283">
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>0.5</v>
+      </c>
+      <c r="C284">
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>0.5</v>
+      </c>
+      <c r="C285">
+        <f t="shared" ca="1" si="2"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>0.5</v>
+      </c>
+      <c r="C286">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>0.5</v>
+      </c>
+      <c r="C287">
+        <f t="shared" ca="1" si="2"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>0.5</v>
+      </c>
+      <c r="C288">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>0.5</v>
+      </c>
+      <c r="C289">
+        <f t="shared" ca="1" si="2"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>0.5</v>
+      </c>
+      <c r="C290">
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>0.5</v>
+      </c>
+      <c r="C291">
+        <f t="shared" ca="1" si="2"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>0.5</v>
+      </c>
+      <c r="C292">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <v>0.5</v>
+      </c>
+      <c r="C293">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>0.5</v>
+      </c>
+      <c r="C294">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>0.5</v>
+      </c>
+      <c r="C295">
+        <f t="shared" ref="C295:C301" ca="1" si="3">RANDBETWEEN(0,100)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>0.5</v>
+      </c>
+      <c r="C296">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>0.5</v>
+      </c>
+      <c r="C297">
+        <f t="shared" ca="1" si="3"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>0.5</v>
+      </c>
+      <c r="C298">
+        <f t="shared" ca="1" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <v>0.5</v>
+      </c>
+      <c r="C299">
+        <f t="shared" ca="1" si="3"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>0.5</v>
+      </c>
+      <c r="C300">
+        <f t="shared" ca="1" si="3"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <v>0.5</v>
+      </c>
+      <c r="C301">
+        <f t="shared" ca="1" si="3"/>
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1788,10 +4188,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678B883C-BD79-456B-8EBB-AD99C38EE970}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="A301" sqref="A301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2910,6 +5310,2406 @@
         <v>96</v>
       </c>
     </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>0.5</v>
+      </c>
+      <c r="C102">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>0.5</v>
+      </c>
+      <c r="C103">
+        <f t="shared" ref="C103:C166" ca="1" si="0">RANDBETWEEN(0,100)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>0.5</v>
+      </c>
+      <c r="C104">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>0.5</v>
+      </c>
+      <c r="C105">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>0.5</v>
+      </c>
+      <c r="C106">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>0.5</v>
+      </c>
+      <c r="C107">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>0.5</v>
+      </c>
+      <c r="C108">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>0.5</v>
+      </c>
+      <c r="C109">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>0.5</v>
+      </c>
+      <c r="C110">
+        <f t="shared" ca="1" si="0"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>0.5</v>
+      </c>
+      <c r="C111">
+        <f t="shared" ca="1" si="0"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>0.5</v>
+      </c>
+      <c r="C112">
+        <f t="shared" ca="1" si="0"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>0.5</v>
+      </c>
+      <c r="C113">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>0.5</v>
+      </c>
+      <c r="C114">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>0.5</v>
+      </c>
+      <c r="C115">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>0.5</v>
+      </c>
+      <c r="C116">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>0.5</v>
+      </c>
+      <c r="C117">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>0.5</v>
+      </c>
+      <c r="C118">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>0.5</v>
+      </c>
+      <c r="C119">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>0.5</v>
+      </c>
+      <c r="C120">
+        <f t="shared" ca="1" si="0"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>0.5</v>
+      </c>
+      <c r="C121">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>0.5</v>
+      </c>
+      <c r="C122">
+        <f t="shared" ca="1" si="0"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>0.5</v>
+      </c>
+      <c r="C123">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>0.5</v>
+      </c>
+      <c r="C124">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>0.5</v>
+      </c>
+      <c r="C125">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>0.5</v>
+      </c>
+      <c r="C126">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>0.5</v>
+      </c>
+      <c r="C127">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>0.5</v>
+      </c>
+      <c r="C128">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>0.5</v>
+      </c>
+      <c r="C129">
+        <f t="shared" ca="1" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>0.5</v>
+      </c>
+      <c r="C130">
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>0.5</v>
+      </c>
+      <c r="C131">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>0.5</v>
+      </c>
+      <c r="C132">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>0.5</v>
+      </c>
+      <c r="C133">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>0.5</v>
+      </c>
+      <c r="C134">
+        <f t="shared" ca="1" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>0.5</v>
+      </c>
+      <c r="C135">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>0.5</v>
+      </c>
+      <c r="C136">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>0.5</v>
+      </c>
+      <c r="C137">
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>0.5</v>
+      </c>
+      <c r="C138">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>0.5</v>
+      </c>
+      <c r="C139">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>0.5</v>
+      </c>
+      <c r="C140">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>0.5</v>
+      </c>
+      <c r="C141">
+        <f t="shared" ca="1" si="0"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>0.5</v>
+      </c>
+      <c r="C142">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>0.5</v>
+      </c>
+      <c r="C143">
+        <f t="shared" ca="1" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>0.5</v>
+      </c>
+      <c r="C144">
+        <f t="shared" ca="1" si="0"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>0.5</v>
+      </c>
+      <c r="C145">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>0.5</v>
+      </c>
+      <c r="C146">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>0.5</v>
+      </c>
+      <c r="C147">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>0.5</v>
+      </c>
+      <c r="C148">
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>0.5</v>
+      </c>
+      <c r="C149">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>0.5</v>
+      </c>
+      <c r="C150">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>0.5</v>
+      </c>
+      <c r="C151">
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>0.5</v>
+      </c>
+      <c r="C152">
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>0.5</v>
+      </c>
+      <c r="C153">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>0.5</v>
+      </c>
+      <c r="C154">
+        <f t="shared" ca="1" si="0"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>0.5</v>
+      </c>
+      <c r="C155">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>0.5</v>
+      </c>
+      <c r="C156">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>0.5</v>
+      </c>
+      <c r="C157">
+        <f t="shared" ca="1" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>0.5</v>
+      </c>
+      <c r="C158">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>0.5</v>
+      </c>
+      <c r="C159">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>0.5</v>
+      </c>
+      <c r="C160">
+        <f t="shared" ca="1" si="0"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>0.5</v>
+      </c>
+      <c r="C161">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>0.5</v>
+      </c>
+      <c r="C162">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>0.5</v>
+      </c>
+      <c r="C163">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>0.5</v>
+      </c>
+      <c r="C164">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>0.5</v>
+      </c>
+      <c r="C165">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>0.5</v>
+      </c>
+      <c r="C166">
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>0.5</v>
+      </c>
+      <c r="C167">
+        <f t="shared" ref="C167:C230" ca="1" si="1">RANDBETWEEN(0,100)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>0.5</v>
+      </c>
+      <c r="C168">
+        <f t="shared" ca="1" si="1"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>0.5</v>
+      </c>
+      <c r="C169">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>0.5</v>
+      </c>
+      <c r="C170">
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>0.5</v>
+      </c>
+      <c r="C171">
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>0.5</v>
+      </c>
+      <c r="C172">
+        <f t="shared" ca="1" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>0.5</v>
+      </c>
+      <c r="C173">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>0.5</v>
+      </c>
+      <c r="C174">
+        <f t="shared" ca="1" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>0.5</v>
+      </c>
+      <c r="C175">
+        <f t="shared" ca="1" si="1"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>0.5</v>
+      </c>
+      <c r="C176">
+        <f t="shared" ca="1" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>0.5</v>
+      </c>
+      <c r="C177">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>0.5</v>
+      </c>
+      <c r="C178">
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>0.5</v>
+      </c>
+      <c r="C179">
+        <f t="shared" ca="1" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>0.5</v>
+      </c>
+      <c r="C180">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>0.5</v>
+      </c>
+      <c r="C181">
+        <f t="shared" ca="1" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>0.5</v>
+      </c>
+      <c r="C182">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>0.5</v>
+      </c>
+      <c r="C183">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>0.5</v>
+      </c>
+      <c r="C184">
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>0.5</v>
+      </c>
+      <c r="C185">
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>0.5</v>
+      </c>
+      <c r="C186">
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>0.5</v>
+      </c>
+      <c r="C187">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>0.5</v>
+      </c>
+      <c r="C188">
+        <f t="shared" ca="1" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>0.5</v>
+      </c>
+      <c r="C189">
+        <f t="shared" ca="1" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>0.5</v>
+      </c>
+      <c r="C190">
+        <f t="shared" ca="1" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>0.5</v>
+      </c>
+      <c r="C191">
+        <f t="shared" ca="1" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>0.5</v>
+      </c>
+      <c r="C192">
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>0.5</v>
+      </c>
+      <c r="C193">
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>0.5</v>
+      </c>
+      <c r="C194">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>0.5</v>
+      </c>
+      <c r="C195">
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>0.5</v>
+      </c>
+      <c r="C196">
+        <f t="shared" ca="1" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>0.5</v>
+      </c>
+      <c r="C197">
+        <f t="shared" ca="1" si="1"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>0.5</v>
+      </c>
+      <c r="C198">
+        <f t="shared" ca="1" si="1"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>0.5</v>
+      </c>
+      <c r="C199">
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>0.5</v>
+      </c>
+      <c r="C200">
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>0.5</v>
+      </c>
+      <c r="C201">
+        <f t="shared" ca="1" si="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>0.5</v>
+      </c>
+      <c r="C202">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>0.5</v>
+      </c>
+      <c r="C203">
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>0.5</v>
+      </c>
+      <c r="C204">
+        <f t="shared" ca="1" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>0.5</v>
+      </c>
+      <c r="C205">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>0.5</v>
+      </c>
+      <c r="C206">
+        <f t="shared" ca="1" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>0.5</v>
+      </c>
+      <c r="C207">
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>0.5</v>
+      </c>
+      <c r="C208">
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>0.5</v>
+      </c>
+      <c r="C209">
+        <f t="shared" ca="1" si="1"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>0.5</v>
+      </c>
+      <c r="C210">
+        <f t="shared" ca="1" si="1"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>0.5</v>
+      </c>
+      <c r="C211">
+        <f t="shared" ca="1" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>0.5</v>
+      </c>
+      <c r="C212">
+        <f t="shared" ca="1" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>0.5</v>
+      </c>
+      <c r="C213">
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>0.5</v>
+      </c>
+      <c r="C214">
+        <f t="shared" ca="1" si="1"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>0.5</v>
+      </c>
+      <c r="C215">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>0.5</v>
+      </c>
+      <c r="C216">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>0.5</v>
+      </c>
+      <c r="C217">
+        <f t="shared" ca="1" si="1"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>0.5</v>
+      </c>
+      <c r="C218">
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>0.5</v>
+      </c>
+      <c r="C219">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>0.5</v>
+      </c>
+      <c r="C220">
+        <f t="shared" ca="1" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>0.5</v>
+      </c>
+      <c r="C221">
+        <f t="shared" ca="1" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>0.5</v>
+      </c>
+      <c r="C222">
+        <f t="shared" ca="1" si="1"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>0.5</v>
+      </c>
+      <c r="C223">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>0.5</v>
+      </c>
+      <c r="C224">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>0.5</v>
+      </c>
+      <c r="C225">
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>0.5</v>
+      </c>
+      <c r="C226">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>0.5</v>
+      </c>
+      <c r="C227">
+        <f t="shared" ca="1" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>0.5</v>
+      </c>
+      <c r="C228">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>0.5</v>
+      </c>
+      <c r="C229">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>0.5</v>
+      </c>
+      <c r="C230">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>0.5</v>
+      </c>
+      <c r="C231">
+        <f t="shared" ref="C231:C294" ca="1" si="2">RANDBETWEEN(0,100)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>0.5</v>
+      </c>
+      <c r="C232">
+        <f t="shared" ca="1" si="2"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>0.5</v>
+      </c>
+      <c r="C233">
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>0.5</v>
+      </c>
+      <c r="C234">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>0.5</v>
+      </c>
+      <c r="C235">
+        <f t="shared" ca="1" si="2"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>0.5</v>
+      </c>
+      <c r="C236">
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>0.5</v>
+      </c>
+      <c r="C237">
+        <f t="shared" ca="1" si="2"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>0.5</v>
+      </c>
+      <c r="C238">
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>0.5</v>
+      </c>
+      <c r="C239">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>0.5</v>
+      </c>
+      <c r="C240">
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>0.5</v>
+      </c>
+      <c r="C241">
+        <f t="shared" ca="1" si="2"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>0.5</v>
+      </c>
+      <c r="C242">
+        <f t="shared" ca="1" si="2"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>0.5</v>
+      </c>
+      <c r="C243">
+        <f t="shared" ca="1" si="2"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>0.5</v>
+      </c>
+      <c r="C244">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>0.5</v>
+      </c>
+      <c r="C245">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>0.5</v>
+      </c>
+      <c r="C246">
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>0.5</v>
+      </c>
+      <c r="C247">
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>0.5</v>
+      </c>
+      <c r="C248">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>0.5</v>
+      </c>
+      <c r="C249">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>0.5</v>
+      </c>
+      <c r="C250">
+        <f t="shared" ca="1" si="2"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>0.5</v>
+      </c>
+      <c r="C251">
+        <f t="shared" ca="1" si="2"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>0.5</v>
+      </c>
+      <c r="C252">
+        <f t="shared" ca="1" si="2"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>0.5</v>
+      </c>
+      <c r="C253">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>0.5</v>
+      </c>
+      <c r="C254">
+        <f t="shared" ca="1" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>0.5</v>
+      </c>
+      <c r="C255">
+        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>0.5</v>
+      </c>
+      <c r="C256">
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>0.5</v>
+      </c>
+      <c r="C257">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>0.5</v>
+      </c>
+      <c r="C258">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>0.5</v>
+      </c>
+      <c r="C259">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>0.5</v>
+      </c>
+      <c r="C260">
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>0.5</v>
+      </c>
+      <c r="C261">
+        <f t="shared" ca="1" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>0.5</v>
+      </c>
+      <c r="C262">
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>0.5</v>
+      </c>
+      <c r="C263">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>0.5</v>
+      </c>
+      <c r="C264">
+        <f t="shared" ca="1" si="2"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>0.5</v>
+      </c>
+      <c r="C265">
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>0.5</v>
+      </c>
+      <c r="C266">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>0.5</v>
+      </c>
+      <c r="C267">
+        <f t="shared" ca="1" si="2"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>0.5</v>
+      </c>
+      <c r="C268">
+        <f t="shared" ca="1" si="2"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>0.5</v>
+      </c>
+      <c r="C269">
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>0.5</v>
+      </c>
+      <c r="C270">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>0.5</v>
+      </c>
+      <c r="C271">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>0.5</v>
+      </c>
+      <c r="C272">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>0.5</v>
+      </c>
+      <c r="C273">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>0.5</v>
+      </c>
+      <c r="C274">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>0.5</v>
+      </c>
+      <c r="C275">
+        <f t="shared" ca="1" si="2"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>0.5</v>
+      </c>
+      <c r="C276">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>0.5</v>
+      </c>
+      <c r="C277">
+        <f t="shared" ca="1" si="2"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>0.5</v>
+      </c>
+      <c r="C278">
+        <f t="shared" ca="1" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>0.5</v>
+      </c>
+      <c r="C279">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>0.5</v>
+      </c>
+      <c r="C280">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>0.5</v>
+      </c>
+      <c r="C281">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>0.5</v>
+      </c>
+      <c r="C282">
+        <f t="shared" ca="1" si="2"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>0.5</v>
+      </c>
+      <c r="C283">
+        <f t="shared" ca="1" si="2"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>0.5</v>
+      </c>
+      <c r="C284">
+        <f t="shared" ca="1" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>0.5</v>
+      </c>
+      <c r="C285">
+        <f t="shared" ca="1" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>0.5</v>
+      </c>
+      <c r="C286">
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>0.5</v>
+      </c>
+      <c r="C287">
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>0.5</v>
+      </c>
+      <c r="C288">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>0.5</v>
+      </c>
+      <c r="C289">
+        <f t="shared" ca="1" si="2"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>0.5</v>
+      </c>
+      <c r="C290">
+        <f t="shared" ca="1" si="2"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>0.5</v>
+      </c>
+      <c r="C291">
+        <f t="shared" ca="1" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>0.5</v>
+      </c>
+      <c r="C292">
+        <f t="shared" ca="1" si="2"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <v>0.5</v>
+      </c>
+      <c r="C293">
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>0.5</v>
+      </c>
+      <c r="C294">
+        <f t="shared" ca="1" si="2"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>0.5</v>
+      </c>
+      <c r="C295">
+        <f t="shared" ref="C295:C301" ca="1" si="3">RANDBETWEEN(0,100)</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>0.5</v>
+      </c>
+      <c r="C296">
+        <f t="shared" ca="1" si="3"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>0.5</v>
+      </c>
+      <c r="C297">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>0.5</v>
+      </c>
+      <c r="C298">
+        <f t="shared" ca="1" si="3"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <v>0.5</v>
+      </c>
+      <c r="C299">
+        <f t="shared" ca="1" si="3"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>0.5</v>
+      </c>
+      <c r="C300">
+        <f t="shared" ca="1" si="3"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <v>0.5</v>
+      </c>
+      <c r="C301">
+        <f t="shared" ca="1" si="3"/>
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2919,10 +7719,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AFA9A3E-C4B1-4F8D-873B-B8BE9B181913}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+      <selection activeCell="C1" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4041,6 +8841,2406 @@
         <v>96</v>
       </c>
     </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>0.5</v>
+      </c>
+      <c r="C102">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>0.5</v>
+      </c>
+      <c r="C103">
+        <f t="shared" ref="C103:C166" ca="1" si="0">RANDBETWEEN(0,100)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>0.5</v>
+      </c>
+      <c r="C104">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>0.5</v>
+      </c>
+      <c r="C105">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>0.5</v>
+      </c>
+      <c r="C106">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>0.5</v>
+      </c>
+      <c r="C107">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>0.5</v>
+      </c>
+      <c r="C108">
+        <f t="shared" ca="1" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>0.5</v>
+      </c>
+      <c r="C109">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>0.5</v>
+      </c>
+      <c r="C110">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>0.5</v>
+      </c>
+      <c r="C111">
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>0.5</v>
+      </c>
+      <c r="C112">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>0.5</v>
+      </c>
+      <c r="C113">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>0.5</v>
+      </c>
+      <c r="C114">
+        <f t="shared" ca="1" si="0"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>0.5</v>
+      </c>
+      <c r="C115">
+        <f t="shared" ca="1" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>0.5</v>
+      </c>
+      <c r="C116">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>0.5</v>
+      </c>
+      <c r="C117">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>0.5</v>
+      </c>
+      <c r="C118">
+        <f t="shared" ca="1" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>0.5</v>
+      </c>
+      <c r="C119">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>0.5</v>
+      </c>
+      <c r="C120">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>0.5</v>
+      </c>
+      <c r="C121">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>0.5</v>
+      </c>
+      <c r="C122">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>0.5</v>
+      </c>
+      <c r="C123">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>0.5</v>
+      </c>
+      <c r="C124">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>0.5</v>
+      </c>
+      <c r="C125">
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>0.5</v>
+      </c>
+      <c r="C126">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>0.5</v>
+      </c>
+      <c r="C127">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>0.5</v>
+      </c>
+      <c r="C128">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>0.5</v>
+      </c>
+      <c r="C129">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>0.5</v>
+      </c>
+      <c r="C130">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>0.5</v>
+      </c>
+      <c r="C131">
+        <f t="shared" ca="1" si="0"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>0.5</v>
+      </c>
+      <c r="C132">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>0.5</v>
+      </c>
+      <c r="C133">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>0.5</v>
+      </c>
+      <c r="C134">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>0.5</v>
+      </c>
+      <c r="C135">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>0.5</v>
+      </c>
+      <c r="C136">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>0.5</v>
+      </c>
+      <c r="C137">
+        <f t="shared" ca="1" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>0.5</v>
+      </c>
+      <c r="C138">
+        <f t="shared" ca="1" si="0"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>0.5</v>
+      </c>
+      <c r="C139">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>0.5</v>
+      </c>
+      <c r="C140">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>0.5</v>
+      </c>
+      <c r="C141">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>0.5</v>
+      </c>
+      <c r="C142">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>0.5</v>
+      </c>
+      <c r="C143">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>0.5</v>
+      </c>
+      <c r="C144">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>0.5</v>
+      </c>
+      <c r="C145">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>0.5</v>
+      </c>
+      <c r="C146">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>0.5</v>
+      </c>
+      <c r="C147">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>0.5</v>
+      </c>
+      <c r="C148">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>0.5</v>
+      </c>
+      <c r="C149">
+        <f t="shared" ca="1" si="0"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>0.5</v>
+      </c>
+      <c r="C150">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>0.5</v>
+      </c>
+      <c r="C151">
+        <f t="shared" ca="1" si="0"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>0.5</v>
+      </c>
+      <c r="C152">
+        <f t="shared" ca="1" si="0"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>0.5</v>
+      </c>
+      <c r="C153">
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>0.5</v>
+      </c>
+      <c r="C154">
+        <f t="shared" ca="1" si="0"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>0.5</v>
+      </c>
+      <c r="C155">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>0.5</v>
+      </c>
+      <c r="C156">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>0.5</v>
+      </c>
+      <c r="C157">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>0.5</v>
+      </c>
+      <c r="C158">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>0.5</v>
+      </c>
+      <c r="C159">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>0.5</v>
+      </c>
+      <c r="C160">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>0.5</v>
+      </c>
+      <c r="C161">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>0.5</v>
+      </c>
+      <c r="C162">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>0.5</v>
+      </c>
+      <c r="C163">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>0.5</v>
+      </c>
+      <c r="C164">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>0.5</v>
+      </c>
+      <c r="C165">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>0.5</v>
+      </c>
+      <c r="C166">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>0.5</v>
+      </c>
+      <c r="C167">
+        <f t="shared" ref="C167:C230" ca="1" si="1">RANDBETWEEN(0,100)</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>0.5</v>
+      </c>
+      <c r="C168">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>0.5</v>
+      </c>
+      <c r="C169">
+        <f t="shared" ca="1" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>0.5</v>
+      </c>
+      <c r="C170">
+        <f t="shared" ca="1" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>0.5</v>
+      </c>
+      <c r="C171">
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>0.5</v>
+      </c>
+      <c r="C172">
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>0.5</v>
+      </c>
+      <c r="C173">
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>0.5</v>
+      </c>
+      <c r="C174">
+        <f t="shared" ca="1" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>0.5</v>
+      </c>
+      <c r="C175">
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>0.5</v>
+      </c>
+      <c r="C176">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>0.5</v>
+      </c>
+      <c r="C177">
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>0.5</v>
+      </c>
+      <c r="C178">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>0.5</v>
+      </c>
+      <c r="C179">
+        <f t="shared" ca="1" si="1"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>0.5</v>
+      </c>
+      <c r="C180">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>0.5</v>
+      </c>
+      <c r="C181">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>0.5</v>
+      </c>
+      <c r="C182">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>0.5</v>
+      </c>
+      <c r="C183">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>0.5</v>
+      </c>
+      <c r="C184">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>0.5</v>
+      </c>
+      <c r="C185">
+        <f t="shared" ca="1" si="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>0.5</v>
+      </c>
+      <c r="C186">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>0.5</v>
+      </c>
+      <c r="C187">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>0.5</v>
+      </c>
+      <c r="C188">
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>0.5</v>
+      </c>
+      <c r="C189">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>0.5</v>
+      </c>
+      <c r="C190">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>0.5</v>
+      </c>
+      <c r="C191">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>0.5</v>
+      </c>
+      <c r="C192">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>0.5</v>
+      </c>
+      <c r="C193">
+        <f t="shared" ca="1" si="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>0.5</v>
+      </c>
+      <c r="C194">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>0.5</v>
+      </c>
+      <c r="C195">
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>0.5</v>
+      </c>
+      <c r="C196">
+        <f t="shared" ca="1" si="1"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>0.5</v>
+      </c>
+      <c r="C197">
+        <f t="shared" ca="1" si="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>0.5</v>
+      </c>
+      <c r="C198">
+        <f t="shared" ca="1" si="1"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>0.5</v>
+      </c>
+      <c r="C199">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>0.5</v>
+      </c>
+      <c r="C200">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>0.5</v>
+      </c>
+      <c r="C201">
+        <f t="shared" ca="1" si="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>0.5</v>
+      </c>
+      <c r="C202">
+        <f t="shared" ca="1" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>0.5</v>
+      </c>
+      <c r="C203">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>0.5</v>
+      </c>
+      <c r="C204">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>0.5</v>
+      </c>
+      <c r="C205">
+        <f t="shared" ca="1" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>0.5</v>
+      </c>
+      <c r="C206">
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>0.5</v>
+      </c>
+      <c r="C207">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>0.5</v>
+      </c>
+      <c r="C208">
+        <f t="shared" ca="1" si="1"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>0.5</v>
+      </c>
+      <c r="C209">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>0.5</v>
+      </c>
+      <c r="C210">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>0.5</v>
+      </c>
+      <c r="C211">
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>0.5</v>
+      </c>
+      <c r="C212">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>0.5</v>
+      </c>
+      <c r="C213">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>0.5</v>
+      </c>
+      <c r="C214">
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>0.5</v>
+      </c>
+      <c r="C215">
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>0.5</v>
+      </c>
+      <c r="C216">
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>0.5</v>
+      </c>
+      <c r="C217">
+        <f t="shared" ca="1" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>0.5</v>
+      </c>
+      <c r="C218">
+        <f t="shared" ca="1" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>0.5</v>
+      </c>
+      <c r="C219">
+        <f t="shared" ca="1" si="1"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>0.5</v>
+      </c>
+      <c r="C220">
+        <f t="shared" ca="1" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>0.5</v>
+      </c>
+      <c r="C221">
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>0.5</v>
+      </c>
+      <c r="C222">
+        <f t="shared" ca="1" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>0.5</v>
+      </c>
+      <c r="C223">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>0.5</v>
+      </c>
+      <c r="C224">
+        <f t="shared" ca="1" si="1"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>0.5</v>
+      </c>
+      <c r="C225">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>0.5</v>
+      </c>
+      <c r="C226">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>0.5</v>
+      </c>
+      <c r="C227">
+        <f t="shared" ca="1" si="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>0.5</v>
+      </c>
+      <c r="C228">
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>0.5</v>
+      </c>
+      <c r="C229">
+        <f t="shared" ca="1" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>0.5</v>
+      </c>
+      <c r="C230">
+        <f t="shared" ca="1" si="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>0.5</v>
+      </c>
+      <c r="C231">
+        <f t="shared" ref="C231:C294" ca="1" si="2">RANDBETWEEN(0,100)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>0.5</v>
+      </c>
+      <c r="C232">
+        <f t="shared" ca="1" si="2"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>0.5</v>
+      </c>
+      <c r="C233">
+        <f t="shared" ca="1" si="2"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>0.5</v>
+      </c>
+      <c r="C234">
+        <f t="shared" ca="1" si="2"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>0.5</v>
+      </c>
+      <c r="C235">
+        <f t="shared" ca="1" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>0.5</v>
+      </c>
+      <c r="C236">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>0.5</v>
+      </c>
+      <c r="C237">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>0.5</v>
+      </c>
+      <c r="C238">
+        <f t="shared" ca="1" si="2"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>0.5</v>
+      </c>
+      <c r="C239">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>0.5</v>
+      </c>
+      <c r="C240">
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>0.5</v>
+      </c>
+      <c r="C241">
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>0.5</v>
+      </c>
+      <c r="C242">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>0.5</v>
+      </c>
+      <c r="C243">
+        <f t="shared" ca="1" si="2"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>0.5</v>
+      </c>
+      <c r="C244">
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>0.5</v>
+      </c>
+      <c r="C245">
+        <f t="shared" ca="1" si="2"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>0.5</v>
+      </c>
+      <c r="C246">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>0.5</v>
+      </c>
+      <c r="C247">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>0.5</v>
+      </c>
+      <c r="C248">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>0.5</v>
+      </c>
+      <c r="C249">
+        <f t="shared" ca="1" si="2"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>0.5</v>
+      </c>
+      <c r="C250">
+        <f t="shared" ca="1" si="2"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>0.5</v>
+      </c>
+      <c r="C251">
+        <f t="shared" ca="1" si="2"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>0.5</v>
+      </c>
+      <c r="C252">
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>0.5</v>
+      </c>
+      <c r="C253">
+        <f t="shared" ca="1" si="2"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>0.5</v>
+      </c>
+      <c r="C254">
+        <f t="shared" ca="1" si="2"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>0.5</v>
+      </c>
+      <c r="C255">
+        <f t="shared" ca="1" si="2"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>0.5</v>
+      </c>
+      <c r="C256">
+        <f t="shared" ca="1" si="2"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>0.5</v>
+      </c>
+      <c r="C257">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>0.5</v>
+      </c>
+      <c r="C258">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>0.5</v>
+      </c>
+      <c r="C259">
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>0.5</v>
+      </c>
+      <c r="C260">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>0.5</v>
+      </c>
+      <c r="C261">
+        <f t="shared" ca="1" si="2"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>0.5</v>
+      </c>
+      <c r="C262">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>0.5</v>
+      </c>
+      <c r="C263">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>0.5</v>
+      </c>
+      <c r="C264">
+        <f t="shared" ca="1" si="2"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>0.5</v>
+      </c>
+      <c r="C265">
+        <f t="shared" ca="1" si="2"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>0.5</v>
+      </c>
+      <c r="C266">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>0.5</v>
+      </c>
+      <c r="C267">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>0.5</v>
+      </c>
+      <c r="C268">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>0.5</v>
+      </c>
+      <c r="C269">
+        <f t="shared" ca="1" si="2"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>0.5</v>
+      </c>
+      <c r="C270">
+        <f t="shared" ca="1" si="2"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>0.5</v>
+      </c>
+      <c r="C271">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>0.5</v>
+      </c>
+      <c r="C272">
+        <f t="shared" ca="1" si="2"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>0.5</v>
+      </c>
+      <c r="C273">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>0.5</v>
+      </c>
+      <c r="C274">
+        <f t="shared" ca="1" si="2"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>0.5</v>
+      </c>
+      <c r="C275">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>0.5</v>
+      </c>
+      <c r="C276">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>0.5</v>
+      </c>
+      <c r="C277">
+        <f t="shared" ca="1" si="2"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>0.5</v>
+      </c>
+      <c r="C278">
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>0.5</v>
+      </c>
+      <c r="C279">
+        <f t="shared" ca="1" si="2"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>0.5</v>
+      </c>
+      <c r="C280">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>0.5</v>
+      </c>
+      <c r="C281">
+        <f t="shared" ca="1" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>0.5</v>
+      </c>
+      <c r="C282">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>0.5</v>
+      </c>
+      <c r="C283">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>0.5</v>
+      </c>
+      <c r="C284">
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>0.5</v>
+      </c>
+      <c r="C285">
+        <f t="shared" ca="1" si="2"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>0.5</v>
+      </c>
+      <c r="C286">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>0.5</v>
+      </c>
+      <c r="C287">
+        <f t="shared" ca="1" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>0.5</v>
+      </c>
+      <c r="C288">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>0.5</v>
+      </c>
+      <c r="C289">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>0.5</v>
+      </c>
+      <c r="C290">
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>0.5</v>
+      </c>
+      <c r="C291">
+        <f t="shared" ca="1" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>0.5</v>
+      </c>
+      <c r="C292">
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <v>0.5</v>
+      </c>
+      <c r="C293">
+        <f t="shared" ca="1" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>0.5</v>
+      </c>
+      <c r="C294">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>0.5</v>
+      </c>
+      <c r="C295">
+        <f t="shared" ref="C295:C301" ca="1" si="3">RANDBETWEEN(0,100)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>0.5</v>
+      </c>
+      <c r="C296">
+        <f t="shared" ca="1" si="3"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>0.5</v>
+      </c>
+      <c r="C297">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>0.5</v>
+      </c>
+      <c r="C298">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <v>0.5</v>
+      </c>
+      <c r="C299">
+        <f t="shared" ca="1" si="3"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>0.5</v>
+      </c>
+      <c r="C300">
+        <f t="shared" ca="1" si="3"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <v>0.5</v>
+      </c>
+      <c r="C301">
+        <f t="shared" ca="1" si="3"/>
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
